--- a/fuentes/contenidos/grado09/guion02/CS_09_02_REC180.xlsx
+++ b/fuentes/contenidos/grado09/guion02/CS_09_02_REC180.xlsx
@@ -523,14 +523,13 @@
     <t>CS_09_02_REC180</t>
   </si>
   <si>
-    <t>Ilustración</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://aulaplaneta.planetasaber.com/encyclopedia/default.asp?idpack=4&amp;idpil=MC0HI032&amp;ruta=Buscador
-</t>
-  </si>
-  <si>
-    <t>Elaborar mapa a partir del modelo.</t>
+    <t>http://aulaplaneta.planetasaber.com/encyclopedia/default.asp?idpack=4&amp;idpil=MC0HI032&amp;ruta=Buscador</t>
+  </si>
+  <si>
+    <t>Fotografía</t>
+  </si>
+  <si>
+    <t>F01</t>
   </si>
 </sst>
 </file>
@@ -1231,7 +1230,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1438,17 +1437,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="51" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="51" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="51" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2293,11 +2283,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:P108"/>
+  <dimension ref="A1:P100"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2335,14 +2325,14 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="90"/>
-      <c r="F2" s="82" t="s">
+      <c r="D2" s="87"/>
+      <c r="F2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="83"/>
+      <c r="G2" s="80"/>
       <c r="H2" s="55"/>
       <c r="I2" s="55"/>
       <c r="J2" s="16"/>
@@ -2352,12 +2342,12 @@
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="91">
+      <c r="C3" s="88">
         <v>9</v>
       </c>
-      <c r="D3" s="92"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="85"/>
+      <c r="D3" s="89"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="82"/>
       <c r="H3" s="55"/>
       <c r="I3" s="55"/>
       <c r="J3" s="16"/>
@@ -2367,10 +2357,10 @@
       <c r="B4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="88" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="92"/>
+      <c r="D4" s="89"/>
       <c r="E4" s="5"/>
       <c r="F4" s="54" t="s">
         <v>56</v>
@@ -2388,10 +2378,10 @@
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="93" t="s">
+      <c r="C5" s="90" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="94"/>
+      <c r="D5" s="91"/>
       <c r="E5" s="5"/>
       <c r="F5" s="52" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -2442,12 +2432,12 @@
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="86" t="s">
+      <c r="F8" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="88"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="85"/>
       <c r="J8" s="18"/>
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
@@ -2491,134 +2481,260 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
+    <row r="10" spans="1:16" s="12" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>153</v>
+      </c>
       <c r="B10" s="78" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C10" s="27" t="s">
         <v>150</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="K10" s="19"/>
-    </row>
-    <row r="11" spans="1:16" s="12" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="27"/>
+      <c r="F10" s="14" t="str">
+        <f t="shared" ref="F10:F66" si="0">IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v>CS_09_02_CO_F01n.png</v>
+      </c>
+      <c r="G10" s="14" t="str">
+        <f>IF(F10&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v>286 x 286 px</v>
+      </c>
+      <c r="H10" s="14" t="str">
+        <f t="shared" ref="H10:H66" si="1">IF(I10&lt;&gt;"",IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <v>CS_09_02_CO_F01a.png</v>
+      </c>
+      <c r="I10" s="14" t="str">
+        <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v>500 x 500 px</v>
+      </c>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+    </row>
+    <row r="11" spans="1:16" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="str">
+        <f t="shared" ref="A11:A22" si="2">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE(LEFT(A10,3),IF(MID(A10,4,2)+1&lt;10,CONCATENATE("0",MID(A10,4,2)+1))),"")</f>
+        <v/>
+      </c>
+      <c r="B11" s="34"/>
+      <c r="C11" s="27" t="str">
+        <f t="shared" ref="C11:C14" si="3">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v/>
+      </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="1:16" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="27"/>
+      <c r="F11" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G11" s="14" t="str">
+        <f>IF(F11&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H11" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I11" s="14" t="str">
+        <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J11" s="33"/>
+      <c r="K11" s="36"/>
+    </row>
+    <row r="12" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="19"/>
-    </row>
-    <row r="13" spans="1:16" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="27"/>
+      <c r="F12" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G12" s="14" t="str">
+        <f>IF(F12&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H12" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I12" s="14" t="str">
+        <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J12" s="19"/>
+      <c r="K12" s="21"/>
+    </row>
+    <row r="13" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B13" s="29"/>
+      <c r="C13" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="19"/>
-    </row>
-    <row r="14" spans="1:16" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="27"/>
+      <c r="F13" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G13" s="14" t="str">
+        <f>IF(F13&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H13" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I13" s="14" t="str">
+        <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+    </row>
+    <row r="14" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-    </row>
-    <row r="15" spans="1:16" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="27"/>
+      <c r="F14" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G14" s="14" t="str">
+        <f>IF(F14&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H14" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I14" s="14" t="str">
+        <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J14" s="14"/>
+      <c r="K14" s="20"/>
+    </row>
+    <row r="15" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-    </row>
-    <row r="16" spans="1:16" s="12" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="79"/>
+      <c r="F15" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G15" s="14" t="str">
+        <f>IF(F15&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H15" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I15" s="14" t="str">
+        <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+    </row>
+    <row r="16" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="36"/>
-    </row>
-    <row r="17" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="27"/>
+      <c r="F16" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G16" s="14" t="str">
+        <f>IF(F16&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H16" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I16" s="14" t="str">
+        <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J16" s="14"/>
+      <c r="K16" s="15"/>
+    </row>
+    <row r="17" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
+      <c r="F17" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G17" s="14" t="str">
+        <f>IF(F17&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H17" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I17" s="14" t="str">
+        <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J17" s="14"/>
+      <c r="K17" s="19"/>
     </row>
     <row r="18" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="str">
-        <f t="shared" ref="A12:A30" si="0">IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),CONCATENATE(LEFT(A17,3),IF(MID(A17,4,2)+1&lt;10,CONCATENATE("0",MID(A17,4,2)+1))),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B18" s="28"/>
-      <c r="C18" s="27" t="str">
-        <f t="shared" ref="C11:C22" si="1">IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
-        <v/>
-      </c>
+      <c r="C18" s="28"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="14" t="str">
-        <f t="shared" ref="F11:F74" si="2">IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),CONCATENATE($C$7,"_",$A18,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I18="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G18" s="14" t="str">
@@ -2626,30 +2742,27 @@
         <v/>
       </c>
       <c r="H18" s="14" t="str">
-        <f t="shared" ref="H11:H74" si="3">IF(I18&lt;&gt;"",IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),CONCATENATE($C$7,"_",$A18,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I18" s="14" t="str">
         <f>IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-    </row>
-    <row r="19" spans="1:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="J18" s="14"/>
+      <c r="K18" s="19"/>
+    </row>
+    <row r="19" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G19" s="14" t="str">
@@ -2657,30 +2770,27 @@
         <v/>
       </c>
       <c r="H19" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I19" s="14" t="str">
         <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J19" s="33"/>
-      <c r="K19" s="36"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
     </row>
     <row r="20" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G20" s="14" t="str">
@@ -2688,7 +2798,7 @@
         <v/>
       </c>
       <c r="H20" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I20" s="14" t="str">
@@ -2696,22 +2806,19 @@
         <v/>
       </c>
       <c r="J20" s="19"/>
-      <c r="K20" s="21"/>
+      <c r="K20" s="19"/>
     </row>
     <row r="21" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G21" s="14" t="str">
@@ -2719,30 +2826,27 @@
         <v/>
       </c>
       <c r="H21" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I21" s="14" t="str">
         <f>IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
     </row>
     <row r="22" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="27" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G22" s="14" t="str">
@@ -2750,27 +2854,24 @@
         <v/>
       </c>
       <c r="H22" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I22" s="14" t="str">
         <f>IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J22" s="14"/>
-      <c r="K22" s="20"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
     </row>
     <row r="23" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="A23" s="13"/>
       <c r="B23" s="28"/>
       <c r="C23" s="28"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G23" s="14" t="str">
@@ -2778,7 +2879,7 @@
         <v/>
       </c>
       <c r="H23" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I23" s="14" t="str">
@@ -2789,16 +2890,13 @@
       <c r="K23" s="19"/>
     </row>
     <row r="24" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G24" s="14" t="str">
@@ -2806,27 +2904,24 @@
         <v/>
       </c>
       <c r="H24" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I24" s="14" t="str">
         <f>IF(OR(B24&lt;&gt;"",J24&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J24" s="14"/>
-      <c r="K24" s="15"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
     </row>
     <row r="25" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="A25" s="13"/>
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G25" s="14" t="str">
@@ -2834,27 +2929,24 @@
         <v/>
       </c>
       <c r="H25" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I25" s="14" t="str">
         <f>IF(OR(B25&lt;&gt;"",J25&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J25" s="14"/>
+      <c r="J25" s="19"/>
       <c r="K25" s="19"/>
     </row>
     <row r="26" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="A26" s="13"/>
       <c r="B26" s="28"/>
       <c r="C26" s="28"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
       <c r="F26" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G26" s="14" t="str">
@@ -2862,27 +2954,24 @@
         <v/>
       </c>
       <c r="H26" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I26" s="14" t="str">
         <f>IF(OR(B26&lt;&gt;"",J26&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J26" s="14"/>
+      <c r="J26" s="19"/>
       <c r="K26" s="19"/>
     </row>
     <row r="27" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G27" s="14" t="str">
@@ -2890,27 +2979,24 @@
         <v/>
       </c>
       <c r="H27" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I27" s="14" t="str">
         <f>IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="15"/>
     </row>
     <row r="28" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G28" s="14" t="str">
@@ -2918,27 +3004,24 @@
         <v/>
       </c>
       <c r="H28" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I28" s="14" t="str">
         <f>IF(OR(B28&lt;&gt;"",J28&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="15"/>
     </row>
     <row r="29" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G29" s="14" t="str">
@@ -2946,27 +3029,24 @@
         <v/>
       </c>
       <c r="H29" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I29" s="14" t="str">
         <f>IF(OR(B29&lt;&gt;"",J29&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="15"/>
     </row>
     <row r="30" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
       <c r="F30" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G30" s="14" t="str">
@@ -2974,24 +3054,24 @@
         <v/>
       </c>
       <c r="H30" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I30" s="14" t="str">
         <f>IF(OR(B30&lt;&gt;"",J30&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="15"/>
     </row>
     <row r="31" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
       <c r="F31" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G31" s="14" t="str">
@@ -2999,24 +3079,24 @@
         <v/>
       </c>
       <c r="H31" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I31" s="14" t="str">
         <f>IF(OR(B31&lt;&gt;"",J31&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="15"/>
     </row>
     <row r="32" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G32" s="14" t="str">
@@ -3024,24 +3104,24 @@
         <v/>
       </c>
       <c r="H32" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I32" s="14" t="str">
         <f>IF(OR(B32&lt;&gt;"",J32&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="15"/>
     </row>
     <row r="33" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
       <c r="F33" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G33" s="14" t="str">
@@ -3049,24 +3129,24 @@
         <v/>
       </c>
       <c r="H33" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I33" s="14" t="str">
         <f>IF(OR(B33&lt;&gt;"",J33&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="15"/>
     </row>
     <row r="34" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
       <c r="F34" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G34" s="14" t="str">
@@ -3074,15 +3154,15 @@
         <v/>
       </c>
       <c r="H34" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I34" s="14" t="str">
         <f>IF(OR(B34&lt;&gt;"",J34&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="15"/>
     </row>
     <row r="35" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
@@ -3091,7 +3171,7 @@
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
       <c r="F35" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G35" s="14" t="str">
@@ -3099,7 +3179,7 @@
         <v/>
       </c>
       <c r="H35" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I35" s="14" t="str">
@@ -3111,12 +3191,12 @@
     </row>
     <row r="36" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
       <c r="F36" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G36" s="14" t="str">
@@ -3124,7 +3204,7 @@
         <v/>
       </c>
       <c r="H36" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I36" s="14" t="str">
@@ -3141,7 +3221,7 @@
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
       <c r="F37" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G37" s="14" t="str">
@@ -3149,24 +3229,24 @@
         <v/>
       </c>
       <c r="H37" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I37" s="14" t="str">
         <f>IF(OR(B37&lt;&gt;"",J37&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J37" s="22"/>
+      <c r="J37" s="14"/>
       <c r="K37" s="15"/>
     </row>
     <row r="38" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
       <c r="F38" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G38" s="14" t="str">
@@ -3174,14 +3254,14 @@
         <v/>
       </c>
       <c r="H38" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I38" s="14" t="str">
         <f>IF(OR(B38&lt;&gt;"",J38&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J38" s="23"/>
+      <c r="J38" s="14"/>
       <c r="K38" s="15"/>
     </row>
     <row r="39" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3191,7 +3271,7 @@
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G39" s="14" t="str">
@@ -3199,7 +3279,7 @@
         <v/>
       </c>
       <c r="H39" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I39" s="14" t="str">
@@ -3216,7 +3296,7 @@
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
       <c r="F40" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G40" s="14" t="str">
@@ -3224,7 +3304,7 @@
         <v/>
       </c>
       <c r="H40" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I40" s="14" t="str">
@@ -3241,7 +3321,7 @@
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
       <c r="F41" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G41" s="14" t="str">
@@ -3249,7 +3329,7 @@
         <v/>
       </c>
       <c r="H41" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I41" s="14" t="str">
@@ -3266,7 +3346,7 @@
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
       <c r="F42" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G42" s="14" t="str">
@@ -3274,7 +3354,7 @@
         <v/>
       </c>
       <c r="H42" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I42" s="14" t="str">
@@ -3291,7 +3371,7 @@
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
       <c r="F43" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G43" s="14" t="str">
@@ -3299,7 +3379,7 @@
         <v/>
       </c>
       <c r="H43" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I43" s="14" t="str">
@@ -3316,7 +3396,7 @@
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
       <c r="F44" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G44" s="14" t="str">
@@ -3324,7 +3404,7 @@
         <v/>
       </c>
       <c r="H44" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I44" s="14" t="str">
@@ -3341,7 +3421,7 @@
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
       <c r="F45" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G45" s="14" t="str">
@@ -3349,7 +3429,7 @@
         <v/>
       </c>
       <c r="H45" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I45" s="14" t="str">
@@ -3366,7 +3446,7 @@
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
       <c r="F46" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G46" s="14" t="str">
@@ -3374,7 +3454,7 @@
         <v/>
       </c>
       <c r="H46" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I46" s="14" t="str">
@@ -3391,7 +3471,7 @@
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
       <c r="F47" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G47" s="14" t="str">
@@ -3399,7 +3479,7 @@
         <v/>
       </c>
       <c r="H47" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I47" s="14" t="str">
@@ -3416,7 +3496,7 @@
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
       <c r="F48" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G48" s="14" t="str">
@@ -3424,7 +3504,7 @@
         <v/>
       </c>
       <c r="H48" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I48" s="14" t="str">
@@ -3441,7 +3521,7 @@
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
       <c r="F49" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G49" s="14" t="str">
@@ -3449,7 +3529,7 @@
         <v/>
       </c>
       <c r="H49" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I49" s="14" t="str">
@@ -3466,7 +3546,7 @@
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
       <c r="F50" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G50" s="14" t="str">
@@ -3474,7 +3554,7 @@
         <v/>
       </c>
       <c r="H50" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I50" s="14" t="str">
@@ -3491,7 +3571,7 @@
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
       <c r="F51" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G51" s="14" t="str">
@@ -3499,7 +3579,7 @@
         <v/>
       </c>
       <c r="H51" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I51" s="14" t="str">
@@ -3516,7 +3596,7 @@
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
       <c r="F52" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G52" s="14" t="str">
@@ -3524,7 +3604,7 @@
         <v/>
       </c>
       <c r="H52" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I52" s="14" t="str">
@@ -3541,7 +3621,7 @@
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
       <c r="F53" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G53" s="14" t="str">
@@ -3549,7 +3629,7 @@
         <v/>
       </c>
       <c r="H53" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I53" s="14" t="str">
@@ -3561,12 +3641,12 @@
     </row>
     <row r="54" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
       <c r="F54" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G54" s="14" t="str">
@@ -3574,7 +3654,7 @@
         <v/>
       </c>
       <c r="H54" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I54" s="14" t="str">
@@ -3586,12 +3666,12 @@
     </row>
     <row r="55" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
       <c r="F55" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G55" s="14" t="str">
@@ -3599,7 +3679,7 @@
         <v/>
       </c>
       <c r="H55" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I55" s="14" t="str">
@@ -3611,12 +3691,12 @@
     </row>
     <row r="56" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="13"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
       <c r="F56" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G56" s="14" t="str">
@@ -3624,7 +3704,7 @@
         <v/>
       </c>
       <c r="H56" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I56" s="14" t="str">
@@ -3636,12 +3716,12 @@
     </row>
     <row r="57" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
       <c r="F57" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G57" s="14" t="str">
@@ -3649,7 +3729,7 @@
         <v/>
       </c>
       <c r="H57" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I57" s="14" t="str">
@@ -3661,12 +3741,12 @@
     </row>
     <row r="58" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
       <c r="F58" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G58" s="14" t="str">
@@ -3674,7 +3754,7 @@
         <v/>
       </c>
       <c r="H58" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I58" s="14" t="str">
@@ -3686,12 +3766,12 @@
     </row>
     <row r="59" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
       <c r="D59" s="14"/>
       <c r="E59" s="14"/>
       <c r="F59" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G59" s="14" t="str">
@@ -3699,7 +3779,7 @@
         <v/>
       </c>
       <c r="H59" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I59" s="14" t="str">
@@ -3711,12 +3791,12 @@
     </row>
     <row r="60" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
       <c r="F60" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G60" s="14" t="str">
@@ -3724,7 +3804,7 @@
         <v/>
       </c>
       <c r="H60" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I60" s="14" t="str">
@@ -3736,12 +3816,12 @@
     </row>
     <row r="61" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
       <c r="F61" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G61" s="14" t="str">
@@ -3749,7 +3829,7 @@
         <v/>
       </c>
       <c r="H61" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I61" s="14" t="str">
@@ -3766,7 +3846,7 @@
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
       <c r="F62" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G62" s="14" t="str">
@@ -3774,7 +3854,7 @@
         <v/>
       </c>
       <c r="H62" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I62" s="14" t="str">
@@ -3791,7 +3871,7 @@
       <c r="D63" s="14"/>
       <c r="E63" s="14"/>
       <c r="F63" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G63" s="14" t="str">
@@ -3799,7 +3879,7 @@
         <v/>
       </c>
       <c r="H63" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I63" s="14" t="str">
@@ -3816,7 +3896,7 @@
       <c r="D64" s="14"/>
       <c r="E64" s="14"/>
       <c r="F64" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G64" s="14" t="str">
@@ -3824,7 +3904,7 @@
         <v/>
       </c>
       <c r="H64" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I64" s="14" t="str">
@@ -3841,7 +3921,7 @@
       <c r="D65" s="14"/>
       <c r="E65" s="14"/>
       <c r="F65" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G65" s="14" t="str">
@@ -3849,7 +3929,7 @@
         <v/>
       </c>
       <c r="H65" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I65" s="14" t="str">
@@ -3866,7 +3946,7 @@
       <c r="D66" s="14"/>
       <c r="E66" s="14"/>
       <c r="F66" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G66" s="14" t="str">
@@ -3874,7 +3954,7 @@
         <v/>
       </c>
       <c r="H66" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I66" s="14" t="str">
@@ -3891,7 +3971,7 @@
       <c r="D67" s="14"/>
       <c r="E67" s="14"/>
       <c r="F67" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F67:F100" si="4">IF(OR(B67&lt;&gt;"",J67&lt;&gt;""),CONCATENATE($C$7,"_",$A67,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I67="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v/>
       </c>
       <c r="G67" s="14" t="str">
@@ -3899,7 +3979,7 @@
         <v/>
       </c>
       <c r="H67" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="H67:H100" si="5">IF(I67&lt;&gt;"",IF(OR(B67&lt;&gt;"",J67&lt;&gt;""),CONCATENATE($C$7,"_",$A67,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
       <c r="I67" s="14" t="str">
@@ -3916,7 +3996,7 @@
       <c r="D68" s="14"/>
       <c r="E68" s="14"/>
       <c r="F68" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G68" s="14" t="str">
@@ -3924,7 +4004,7 @@
         <v/>
       </c>
       <c r="H68" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I68" s="14" t="str">
@@ -3941,7 +4021,7 @@
       <c r="D69" s="14"/>
       <c r="E69" s="14"/>
       <c r="F69" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G69" s="14" t="str">
@@ -3949,7 +4029,7 @@
         <v/>
       </c>
       <c r="H69" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I69" s="14" t="str">
@@ -3966,7 +4046,7 @@
       <c r="D70" s="14"/>
       <c r="E70" s="14"/>
       <c r="F70" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G70" s="14" t="str">
@@ -3974,7 +4054,7 @@
         <v/>
       </c>
       <c r="H70" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I70" s="14" t="str">
@@ -3991,7 +4071,7 @@
       <c r="D71" s="14"/>
       <c r="E71" s="14"/>
       <c r="F71" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G71" s="14" t="str">
@@ -3999,7 +4079,7 @@
         <v/>
       </c>
       <c r="H71" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I71" s="14" t="str">
@@ -4016,7 +4096,7 @@
       <c r="D72" s="14"/>
       <c r="E72" s="14"/>
       <c r="F72" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G72" s="14" t="str">
@@ -4024,7 +4104,7 @@
         <v/>
       </c>
       <c r="H72" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I72" s="14" t="str">
@@ -4041,7 +4121,7 @@
       <c r="D73" s="14"/>
       <c r="E73" s="14"/>
       <c r="F73" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G73" s="14" t="str">
@@ -4049,7 +4129,7 @@
         <v/>
       </c>
       <c r="H73" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I73" s="14" t="str">
@@ -4066,7 +4146,7 @@
       <c r="D74" s="14"/>
       <c r="E74" s="14"/>
       <c r="F74" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G74" s="14" t="str">
@@ -4074,7 +4154,7 @@
         <v/>
       </c>
       <c r="H74" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I74" s="14" t="str">
@@ -4091,7 +4171,7 @@
       <c r="D75" s="14"/>
       <c r="E75" s="14"/>
       <c r="F75" s="14" t="str">
-        <f t="shared" ref="F75:F108" si="4">IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I75="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="G75" s="14" t="str">
@@ -4099,7 +4179,7 @@
         <v/>
       </c>
       <c r="H75" s="14" t="str">
-        <f t="shared" ref="H75:H108" si="5">IF(I75&lt;&gt;"",IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I75" s="14" t="str">
@@ -4733,206 +4813,6 @@
       </c>
       <c r="J100" s="14"/>
       <c r="K100" s="15"/>
-    </row>
-    <row r="101" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="13"/>
-      <c r="B101" s="13"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G101" s="14" t="str">
-        <f>IF(F101&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H101" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I101" s="14" t="str">
-        <f>IF(OR(B101&lt;&gt;"",J101&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J101" s="14"/>
-      <c r="K101" s="15"/>
-    </row>
-    <row r="102" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="13"/>
-      <c r="B102" s="13"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G102" s="14" t="str">
-        <f>IF(F102&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H102" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I102" s="14" t="str">
-        <f>IF(OR(B102&lt;&gt;"",J102&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J102" s="14"/>
-      <c r="K102" s="15"/>
-    </row>
-    <row r="103" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="13"/>
-      <c r="B103" s="13"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G103" s="14" t="str">
-        <f>IF(F103&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H103" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I103" s="14" t="str">
-        <f>IF(OR(B103&lt;&gt;"",J103&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J103" s="14"/>
-      <c r="K103" s="15"/>
-    </row>
-    <row r="104" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="13"/>
-      <c r="B104" s="13"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G104" s="14" t="str">
-        <f>IF(F104&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H104" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I104" s="14" t="str">
-        <f>IF(OR(B104&lt;&gt;"",J104&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J104" s="14"/>
-      <c r="K104" s="15"/>
-    </row>
-    <row r="105" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="13"/>
-      <c r="B105" s="13"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G105" s="14" t="str">
-        <f>IF(F105&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H105" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I105" s="14" t="str">
-        <f>IF(OR(B105&lt;&gt;"",J105&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J105" s="14"/>
-      <c r="K105" s="15"/>
-    </row>
-    <row r="106" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="13"/>
-      <c r="B106" s="13"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G106" s="14" t="str">
-        <f>IF(F106&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H106" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I106" s="14" t="str">
-        <f>IF(OR(B106&lt;&gt;"",J106&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J106" s="14"/>
-      <c r="K106" s="15"/>
-    </row>
-    <row r="107" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="13"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G107" s="14" t="str">
-        <f>IF(F107&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H107" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I107" s="14" t="str">
-        <f>IF(OR(B107&lt;&gt;"",J107&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J107" s="14"/>
-      <c r="K107" s="15"/>
-    </row>
-    <row r="108" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="13"/>
-      <c r="B108" s="13"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G108" s="14" t="str">
-        <f>IF(F108&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
-      </c>
-      <c r="H108" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I108" s="14" t="str">
-        <f>IF(OR(B108&lt;&gt;"",J108&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J108" s="14"/>
-      <c r="K108" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4958,12 +4838,6 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E108">
-      <formula1>"Vertical,Horizontal"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D108">
-      <formula1>"Ilustración,Fotografía"</formula1>
-    </dataValidation>
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:G3">
       <formula1>42036</formula1>
       <formula2>42490</formula2>
@@ -4979,6 +4853,12 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
       <formula1>"3,4,5,6,7,8,9,10,11"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E100">
+      <formula1>"Vertical,Horizontal"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D100">
+      <formula1>"Ilustración,Fotografía"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -5015,25 +4895,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="99"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="96"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="46"/>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="101"/>
-      <c r="E2" s="102"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99"/>
       <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
@@ -5041,11 +4921,11 @@
         <v>44</v>
       </c>
       <c r="B3" s="46"/>
-      <c r="C3" s="106" t="s">
+      <c r="C3" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="107"/>
-      <c r="E3" s="108"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="105"/>
       <c r="F3" s="47"/>
       <c r="H3" s="37" t="s">
         <v>19</v>
@@ -5096,11 +4976,11 @@
       <c r="C5" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="109" t="str">
+      <c r="D5" s="106" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="110"/>
+      <c r="E5" s="107"/>
       <c r="F5" s="47"/>
       <c r="H5" s="37" t="s">
         <v>23</v>
@@ -5145,12 +5025,12 @@
       <c r="C7" s="77" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="95" t="str">
+      <c r="D7" s="92" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="95"/>
-      <c r="F7" s="96"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="93"/>
       <c r="H7" s="37" t="s">
         <v>25</v>
       </c>
@@ -5244,14 +5124,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="97" t="s">
+      <c r="A13" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="99"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="96"/>
       <c r="I13" s="37" t="s">
         <v>34</v>
       </c>
@@ -5284,12 +5164,12 @@
         <v>47</v>
       </c>
       <c r="B15" s="46"/>
-      <c r="C15" s="100" t="s">
+      <c r="C15" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="102"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="99"/>
       <c r="J15" s="37">
         <v>12</v>
       </c>
@@ -5329,12 +5209,12 @@
       <c r="C17" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="103" t="str">
+      <c r="D17" s="100" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="104"/>
-      <c r="F17" s="105"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="102"/>
       <c r="J17" s="37">
         <v>14</v>
       </c>
@@ -5350,12 +5230,12 @@
       <c r="C18" s="77" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="95" t="str">
+      <c r="D18" s="92" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="95"/>
-      <c r="F18" s="96"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="93"/>
       <c r="J18" s="37">
         <v>15</v>
       </c>
@@ -5746,41 +5626,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="111" t="s">
+      <c r="C1" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="111" t="s">
+      <c r="E1" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="111" t="s">
+      <c r="F1" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="111" t="s">
+      <c r="G1" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="112" t="s">
+      <c r="H1" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="111"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
       <c r="H2" s="56" t="s">
         <v>66</v>
       </c>
